--- a/dist/document/dest/2020/10/doctors/179.xlsx
+++ b/dist/document/dest/2020/10/doctors/179.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
-        <v>693000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
-        <v>269100</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>141</v>
       </c>
-      <c r="C4" s="1">
-        <v>1070190</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>132</v>
       </c>
-      <c r="C5" s="1">
-        <v>2428800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>327</v>
       </c>
-      <c r="C6" s="1">
-        <v>2445960</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
-        <v>293700</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>156</v>
       </c>
-      <c r="C8" s="1">
-        <v>402480</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C9" s="1">
-        <v>1287000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="1">
-        <v>127650</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>171</v>
       </c>
-      <c r="C11" s="1">
-        <v>589950</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
-        <v>216600</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
-        <v>292600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <v>67620</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>150</v>
       </c>
-      <c r="C15" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>120</v>
       </c>
-      <c r="C16" s="1">
-        <v>510000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>396000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>194</v>
       </c>
-      <c r="C18" s="1">
-        <v>224070</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>90</v>
       </c>
-      <c r="C19" s="1">
-        <v>496800</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>570</v>
       </c>
-      <c r="C20" s="1">
-        <v>1048800</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
-        <v>898800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>150</v>
       </c>
-      <c r="C22" s="1">
-        <v>690000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
-        <v>148200</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>255</v>
       </c>
-      <c r="C24" s="1">
-        <v>1026375</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="1">
-        <v>9555</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>202</v>
       </c>
-      <c r="C26" s="1">
-        <v>1771540</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>100</v>
       </c>
-      <c r="C27" s="1">
-        <v>257000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>195</v>
       </c>
-      <c r="C28" s="1">
-        <v>313950</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>180</v>
       </c>
-      <c r="C29" s="1">
-        <v>434700</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>342</v>
       </c>
-      <c r="C30" s="1">
-        <v>1809180</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>90</v>
       </c>
-      <c r="C31" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -735,7 +645,7 @@
         <v>4114</v>
       </c>
       <c r="C32" s="1">
-        <v>21388120</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/179.xlsx
+++ b/dist/document/dest/2020/10/doctors/179.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,258 +399,579 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>646800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
-        <v>141</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B5" s="1">
-        <v>132</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>683100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B6" s="1">
-        <v>327</v>
+        <v>312</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2368080</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B8" s="1">
-        <v>156</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1030400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1346400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>673200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>171</v>
+        <v>180</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1346400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>154800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1287000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B14" s="1">
         <v>14</v>
       </c>
+      <c r="C14" s="1">
+        <v>200200</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>518100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="C16" s="1">
+        <v>327750</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>200100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>570</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>179400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B21" s="1">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>248400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>514800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>255</v>
+        <v>150</v>
+      </c>
+      <c r="C24" s="1">
+        <v>858000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="C26" s="1">
+        <v>455400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>213900</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B29" s="1">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>342</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>130900</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Zurma (Mosaprid Citrat 5mg)</v>
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
       </c>
       <c r="B31" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>349800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>58880</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>180</v>
+      </c>
+      <c r="C34" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>328</v>
+      </c>
+      <c r="C35" s="1">
+        <v>603520</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>449400</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>360</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1449000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1">
+        <v>300150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>526200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>348</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3051960</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>180</v>
+      </c>
+      <c r="C47" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>130</v>
+      </c>
+      <c r="C49" s="1">
+        <v>313950</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>260</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1375400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B32" s="1">
-        <v>4114</v>
-      </c>
-      <c r="C32" s="1">
-        <v>NaN</v>
+      <c r="B53" s="1">
+        <v>4965</v>
+      </c>
+      <c r="C53" s="1">
+        <v>27936590</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C53"/>
   </ignoredErrors>
 </worksheet>
 </file>